--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65AD2E2-DE56-4FD1-B42B-0A624042159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="29036" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -29,11 +28,11 @@
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(UseItem!$B$8,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,17 +51,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -70,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="208">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,23 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_id</t>
-  </si>
-  <si>
-    <t>Item_rank</t>
-  </si>
-  <si>
-    <t>Item_weight</t>
-  </si>
-  <si>
-    <t>Sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explanation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채집능력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,25 +156,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_id</t>
-  </si>
-  <si>
-    <t>Armor_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potion_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 힐링 포션, 효과는 체력 30 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_maxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더미 드랍템 데이터.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,18 +244,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용 거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_useDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>던질 수 있는 돌멩이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,18 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임시 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,18 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_WPN_002</t>
   </si>
   <si>
@@ -394,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_1st_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_2nd_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가드 성능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,18 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_guard_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_strong_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_justGaurd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,14 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armor_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_hiding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,22 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,22 +398,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경량 가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_max_charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은 갑옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon_strong_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강공격 이동속도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,18 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCH_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCH_heal_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개수 특화 파우치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,26 +533,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_usable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 장착가능 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_wearable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파우치 등록 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_pouchable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITM_POT_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,26 +621,14 @@
     <t>PAR_POT_004</t>
   </si>
   <si>
-    <t>Item_PAR_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAR_DRP_SCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseItem_useDistance2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,13 +662,209 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,7 +972,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1341,49 +1365,49 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
+  <threadedComment ref="F1" dT="2025-04-13T18:40:10.18" personId="{3E61A1CB-F443-4652-9F2C-6087827B106C}" id="{FD595059-0693-49EC-8400-D9EEC9EFBCFD}">
     <text>사용거리가 0이라면 설치형 아이템</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A329797-2AD7-4E84-B33C-1A87B89CCD21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1398,21 +1422,21 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -1439,68 +1463,68 @@
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1">
         <v>99</v>
@@ -1527,18 +1551,18 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1">
         <v>99</v>
@@ -1565,18 +1589,18 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1">
         <v>99</v>
@@ -1603,18 +1627,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1">
         <v>99</v>
@@ -1641,18 +1665,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1">
         <v>99</v>
@@ -1679,18 +1703,18 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
         <v>99</v>
@@ -1717,18 +1741,18 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1">
         <v>99</v>
@@ -1755,18 +1779,18 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>99</v>
@@ -1793,18 +1817,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1831,18 +1855,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1869,18 +1893,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1907,18 +1931,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1945,18 +1969,18 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1983,18 +2007,18 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2021,18 +2045,18 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2059,18 +2083,18 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2097,18 +2121,18 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2135,18 +2159,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2173,18 +2197,18 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2211,18 +2235,18 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2249,18 +2273,18 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2287,18 +2311,18 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -2325,18 +2349,18 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -2363,18 +2387,18 @@
         <v>1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -2401,18 +2425,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2439,15 +2463,15 @@
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -2459,225 +2483,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39B297B-3890-4043-856D-F4A60F5A9BA5}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2688,39 +2743,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB1C16F-F7EE-488C-95D3-C3AA56FB8A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2729,26 +2784,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2758,74 +2813,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190C59BF-9543-48F1-BB0D-FDCF9B553F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2861,50 +2916,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2934,15 +2989,15 @@
         <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2972,15 +3027,15 @@
         <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -3010,15 +3065,15 @@
         <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -3048,15 +3103,15 @@
         <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3086,10 +3141,10 @@
         <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -3100,7 +3155,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3111,7 +3166,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -3122,7 +3177,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -3133,7 +3188,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -3144,7 +3199,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -3155,7 +3210,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -3166,7 +3221,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -3177,7 +3232,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -3188,7 +3243,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -3199,7 +3254,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -3210,7 +3265,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -3221,7 +3276,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3232,7 +3287,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -3243,7 +3298,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3254,7 +3309,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3265,7 +3320,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3276,7 +3331,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3287,7 +3342,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3298,7 +3353,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3312,59 +3367,60 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B7594-854B-40F4-B28F-BD7B5130D053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3385,35 +3441,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3428,15 +3484,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3451,15 +3507,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3474,15 +3530,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3497,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3507,53 +3563,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E49322-F639-407B-BE7C-363A9511C10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3565,38 +3621,38 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3608,15 +3664,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -3628,64 +3684,64 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3695,49 +3751,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9C7F3-4CB1-49B1-A80A-5EC57812C7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3752,29 +3808,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3783,15 +3839,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3800,64 +3856,64 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3867,44 +3923,45 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D032C6B-C866-4CFC-B063-5F66B309E307}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="43.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3913,9 +3970,9 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3925,10 +3982,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -3937,354 +3994,325 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="b">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C04FAAE-BA01-4C13-8221-18036A947D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -4296,29 +4324,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EB5AC-D02A-4FFF-886F-06D3A201A801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="29036" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
-    <sheet name="UseItem" sheetId="10" r:id="rId2"/>
+    <sheet name="ThrowItem" sheetId="10" r:id="rId2"/>
     <sheet name="DropItem" sheetId="15" r:id="rId3"/>
     <sheet name="Weapon" sheetId="3" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
     <sheet name="Backpack" sheetId="13" r:id="rId6"/>
-    <sheet name="Pouch" sheetId="14" r:id="rId7"/>
+    <sheet name="SubWeapon" sheetId="14" r:id="rId7"/>
     <sheet name="Potion" sheetId="2" r:id="rId8"/>
-    <sheet name="Condition" sheetId="12" r:id="rId9"/>
+    <sheet name="Hone" sheetId="16" r:id="rId9"/>
+    <sheet name="Condition" sheetId="12" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(UseItem!$B$7,0,0,COUNTA(UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(ThrowItem!$B$7,0,0,COUNTA(ThrowItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -37,40 +39,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -78,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채집능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어구 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,435 +412,546 @@
     <t>ITM_WPN_005</t>
   </si>
   <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 스테미너 소비 감소 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 비용</t>
+  </si>
+  <si>
+    <t>수리 재료</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>repair_cost</t>
+  </si>
+  <si>
+    <t>repair_ing</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
     <t>공격력 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
   </si>
   <si>
     <t>방어 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_WPN_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
   </si>
   <si>
     <t>강공격 특화 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_PCH_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 스테미너 소비 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
-  </si>
-  <si>
-    <t>PAR_PCH_001</t>
-  </si>
-  <si>
-    <t>PAR_PCH_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 최대 등록 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_register_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>wearable</t>
-  </si>
-  <si>
-    <t>pouchable</t>
-  </si>
-  <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
-    <t>max_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>sound_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>strong_Ratio</t>
-  </si>
-  <si>
-    <t>max_charge</t>
-  </si>
-  <si>
-    <t>strong_speed</t>
-  </si>
-  <si>
-    <t>guard_ratio</t>
-  </si>
-  <si>
-    <t>just_guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여 버프/디버프 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_POT_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 정화 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1/strong2/strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio2</t>
+  </si>
+  <si>
+    <t>PAR_SWP_001</t>
+  </si>
+  <si>
+    <t>PAR_SWP_002</t>
+  </si>
+  <si>
+    <t>채집 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SWP_001</t>
+  </si>
+  <si>
+    <t>ITM_SWP_002</t>
+  </si>
+  <si>
+    <t>구리 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_006</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 재료 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_ing_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throwable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 투척가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 내구도를 회복시켜주는 숫돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_002</t>
+  </si>
+  <si>
+    <t>PAR_HON_003</t>
+  </si>
+  <si>
+    <t>숫돌(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(대)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,7 +1059,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1372,42 +1459,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="19.375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1419,112 +1505,112 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1">
         <v>99</v>
@@ -1538,11 +1624,11 @@
       <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1551,18 +1637,18 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>99</v>
@@ -1576,11 +1662,11 @@
       <c r="H5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1589,18 +1675,18 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1">
         <v>99</v>
@@ -1614,11 +1700,11 @@
       <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1627,18 +1713,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1">
         <v>99</v>
@@ -1652,11 +1738,11 @@
       <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1665,18 +1751,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1">
         <v>99</v>
@@ -1690,11 +1776,11 @@
       <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1703,18 +1789,18 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1">
         <v>99</v>
@@ -1728,11 +1814,11 @@
       <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1741,18 +1827,18 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1">
         <v>99</v>
@@ -1766,11 +1852,11 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
-        <v>5</v>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1779,18 +1865,18 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1">
         <v>99</v>
@@ -1804,8 +1890,8 @@
       <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1817,56 +1903,56 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1">
-        <v>200</v>
+        <v>500</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1878,86 +1964,86 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
         <v>150</v>
       </c>
-      <c r="I13" s="1">
-        <v>300</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>400</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="1">
-        <v>400</v>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1969,18 +2055,18 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1994,8 +2080,8 @@
       <c r="H16" s="1">
         <v>200</v>
       </c>
-      <c r="I16" s="1">
-        <v>400</v>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -2007,246 +2093,246 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>200</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H19" s="1">
         <v>100</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>150</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
         <v>200</v>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>200</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>150</v>
-      </c>
-      <c r="I18" s="1">
-        <v>300</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>400</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="1">
-        <v>400</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
-        <v>200</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>200</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2260,8 +2346,8 @@
       <c r="H23" s="1">
         <v>100</v>
       </c>
-      <c r="I23" s="1">
-        <v>200</v>
+      <c r="I23" t="b">
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2273,18 +2359,18 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2298,8 +2384,8 @@
       <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" s="1">
-        <v>200</v>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2311,94 +2397,94 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -2412,8 +2498,8 @@
       <c r="H27" s="1">
         <v>10</v>
       </c>
-      <c r="I27" s="1">
-        <v>50</v>
+      <c r="I27" t="b">
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -2425,18 +2511,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2450,8 +2536,8 @@
       <c r="H28" s="1">
         <v>30</v>
       </c>
-      <c r="I28" s="1">
-        <v>150</v>
+      <c r="I28" t="b">
+        <v>0</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -2463,18 +2549,176 @@
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2483,103 +2727,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2594,15 +2838,15 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2617,15 +2861,15 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2640,15 +2884,15 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2663,15 +2907,15 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2686,15 +2930,15 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2709,15 +2953,15 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2732,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2743,67 +2987,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2813,159 +3057,189 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -2988,22 +3262,31 @@
       <c r="L4">
         <v>70</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0.7</v>
@@ -3026,22 +3309,31 @@
       <c r="L5">
         <v>70</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
       </c>
       <c r="F6">
         <v>0.7</v>
@@ -3064,22 +3356,31 @@
       <c r="L6">
         <v>70</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="1">
+        <v>150</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0.7</v>
@@ -3097,27 +3398,36 @@
         <v>30</v>
       </c>
       <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
         <v>70</v>
       </c>
-      <c r="L7">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="1">
+        <v>200</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>0.7</v>
@@ -3126,36 +3436,81 @@
         <v>1.3</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8" s="1">
+        <v>200</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="H9">
         <v>1.333</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>1.5</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>70</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M9" s="1">
+        <v>200</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3166,7 +3521,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -3177,7 +3532,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -3188,7 +3543,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -3199,7 +3554,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -3210,73 +3565,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3287,7 +3576,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -3298,7 +3587,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3309,7 +3598,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3320,7 +3609,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3331,7 +3620,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3342,7 +3631,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3353,7 +3642,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3372,104 +3661,104 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3484,15 +3773,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3507,15 +3796,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3530,15 +3819,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3553,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3563,96 +3852,96 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3664,15 +3953,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -3684,64 +3973,64 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -3751,170 +4040,154 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24" s="8"/>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3923,220 +4196,220 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4148,7 +4421,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4160,7 +4433,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4172,7 +4445,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4184,7 +4457,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4196,7 +4469,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4208,7 +4481,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4220,7 +4493,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4232,7 +4505,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4244,7 +4517,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4256,7 +4529,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4276,81 +4549,268 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6818FF-BD1E-4E5C-990F-172E1BFF2BBC}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1">
+        <v>300</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EB5AC-D02A-4FFF-886F-06D3A201A801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1E40-E378-4B0D-8C66-DF12D9B8FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="256">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소형 발소리 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발소리를 줄여주는 포션, 효과는 발소리 범위 30% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,593 +354,655 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차징 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_004</t>
+  </si>
+  <si>
+    <t>ITM_WPN_005</t>
+  </si>
+  <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_ARM_002</t>
+  </si>
+  <si>
+    <t>ITM_ARM_003</t>
+  </si>
+  <si>
+    <t>ITM_ARM_004</t>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_BPK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_SIL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_GOL</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 비용</t>
+  </si>
+  <si>
+    <t>수리 재료</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>repair_cost</t>
+  </si>
+  <si>
+    <t>repair_ing</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_CPR</t>
+  </si>
+  <si>
+    <t>은 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_SIL</t>
+  </si>
+  <si>
+    <t>금 곡괭이</t>
+  </si>
+  <si>
+    <t>ITM_MIN_GOL</t>
+  </si>
+  <si>
+    <t>공격력 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+  </si>
+  <si>
+    <t>방어 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_WPN_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금 곡괭이+ </t>
+  </si>
+  <si>
+    <t>강공격 특화 곡괭이</t>
+  </si>
+  <si>
+    <t>PAR_SWP_001</t>
+  </si>
+  <si>
+    <t>PAR_SWP_002</t>
+  </si>
+  <si>
+    <t>채집 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_SWP_001</t>
+  </si>
+  <si>
+    <t>ITM_SWP_002</t>
+  </si>
+  <si>
+    <t>구리 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 망치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_WPN_006</t>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 재료 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_ing_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throwable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 투척가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 내구도를 회복시켜주는 숫돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HON_002</t>
+  </si>
+  <si>
+    <t>PAR_HON_003</t>
+  </si>
+  <si>
+    <t>숫돌(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫돌(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKPACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBWEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ITM_POT_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITM_POT_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 차징 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_004</t>
-  </si>
-  <si>
-    <t>ITM_WPN_005</t>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 스테미너 소비 감소 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITM_POT_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>ITM_POT_005</t>
+  </si>
+  <si>
+    <t>PAR_POT_005</t>
+  </si>
+  <si>
+    <t>BOTTLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM_POT_006</t>
+  </si>
+  <si>
+    <t>PAR_POT_006</t>
   </si>
   <si>
     <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 최대 등록 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_register_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>wearable</t>
-  </si>
-  <si>
-    <t>pouchable</t>
-  </si>
-  <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
-    <t>max_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>sound_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>strong_Ratio</t>
-  </si>
-  <si>
-    <t>max_charge</t>
-  </si>
-  <si>
-    <t>strong_speed</t>
-  </si>
-  <si>
-    <t>guard_ratio</t>
-  </si>
-  <si>
-    <t>just_guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여 버프/디버프 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_POT_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 정화 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1/strong2/strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 비용</t>
-  </si>
-  <si>
-    <t>수리 재료</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>repair_cost</t>
-  </si>
-  <si>
-    <t>repair_ing</t>
-  </si>
-  <si>
-    <t>낡은 곡괭이</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>기본으로 지급되는 견습용 곡괭이</t>
-  </si>
-  <si>
-    <t>구리 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
-    <t>은 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-  </si>
-  <si>
-    <t>공격력 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-  </si>
-  <si>
-    <t>방어 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_WPN_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-  </si>
-  <si>
-    <t>강공격 특화 곡괭이</t>
-  </si>
-  <si>
-    <t>PAR_SWP_001</t>
-  </si>
-  <si>
-    <t>PAR_SWP_002</t>
-  </si>
-  <si>
-    <t>채집 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_SWP_001</t>
-  </si>
-  <si>
-    <t>ITM_SWP_002</t>
-  </si>
-  <si>
-    <t>구리 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주석 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_006</t>
-  </si>
-  <si>
-    <t>낡은 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 재료 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_ing_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>throwable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 투척가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌(소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 내구도를 회복시켜주는 숫돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HON_002</t>
-  </si>
-  <si>
-    <t>PAR_HON_003</t>
-  </si>
-  <si>
-    <t>숫돌(중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫돌(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 담는 병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,26 +1518,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1487,40 +1547,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1534,367 +1600,421 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="N3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="1">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="1">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F9" s="1">
         <v>99</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F10" s="1">
         <v>99</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F11" s="1">
         <v>99</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>30</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1">
-        <v>99</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="1">
-        <v>99</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="1">
-        <v>99</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="1">
-        <v>99</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="1">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1902,743 +2022,939 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="1">
+        <v>226</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1.5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>500</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
+      <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
-        <v>100</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="I15" s="1">
+        <v>150</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>150</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>200</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>200</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>200</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>150</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>200</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>200</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="1">
-        <v>150</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1">
-        <v>100</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>100</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>100</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1">
-        <v>100</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="1">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27" s="1">
-        <v>10</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
         <v>0.5</v>
       </c>
-      <c r="H28" s="1">
-        <v>30</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>10</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="1">
-        <v>30</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2672,10 +2988,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -2700,24 +3016,24 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2754,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2800,19 +3116,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -2820,7 +3136,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -2843,10 +3159,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2866,10 +3182,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2889,7 +3205,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -2912,10 +3228,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2935,10 +3251,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2958,10 +3274,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2976,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3033,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -3041,13 +3357,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3377,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3089,46 +3405,46 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>4</v>
@@ -3169,10 +3485,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>5</v>
@@ -3186,43 +3502,43 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>8</v>
@@ -3230,10 +3546,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3266,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3313,21 +3629,21 @@
         <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3360,21 +3676,21 @@
         <v>150</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -3407,21 +3723,21 @@
         <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3454,21 +3770,21 @@
         <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -3501,13 +3817,13 @@
         <v>200</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3689,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3698,10 +4014,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -3735,19 +4051,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -3755,10 +4071,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3778,10 +4094,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3796,15 +4112,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3819,15 +4135,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -3842,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3878,19 +4194,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -3910,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3921,16 +4237,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -3938,10 +4254,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3953,15 +4269,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -3973,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4064,13 +4380,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4095,10 +4411,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -4106,30 +4422,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4200,7 +4516,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4225,16 +4541,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4272,17 +4588,17 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -4294,20 +4610,19 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>255</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4316,22 +4631,20 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4340,22 +4653,22 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4364,22 +4677,22 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4388,22 +4701,22 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4411,12 +4724,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4552,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6818FF-BD1E-4E5C-990F-172E1BFF2BBC}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4573,13 +4898,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4611,11 +4936,11 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -4627,16 +4952,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4645,16 +4970,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4663,16 +4988,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1E40-E378-4B0D-8C66-DF12D9B8FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A478AECE-96CD-4299-B73D-2F66B8F657B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -51,10 +51,19 @@
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="257">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,6 +1012,10 @@
   </si>
   <si>
     <t>포션을 담는 병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1130,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1520,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4515,8 +4528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4621,6 +4634,9 @@
       <c r="E4" t="s">
         <v>254</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="G4" t="s">
         <v>255</v>
       </c>
@@ -4642,7 +4658,9 @@
       <c r="E5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A478AECE-96CD-4299-B73D-2F66B8F657B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB915DA9-F504-4A70-85EF-B3B4B0F2ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
-    <sheet name="ThrowItem" sheetId="10" r:id="rId2"/>
-    <sheet name="DropItem" sheetId="15" r:id="rId3"/>
-    <sheet name="Weapon" sheetId="3" r:id="rId4"/>
+    <sheet name="DropItem" sheetId="15" r:id="rId2"/>
+    <sheet name="Weapon" sheetId="3" r:id="rId3"/>
+    <sheet name="ThrowItem" sheetId="10" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
     <sheet name="Backpack" sheetId="13" r:id="rId6"/>
     <sheet name="SubWeapon" sheetId="14" r:id="rId7"/>
@@ -29,7 +29,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id" localSheetId="2">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
+    <definedName name="사용템id" localSheetId="1">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(ThrowItem!$B$7,0,0,COUNTA(ThrowItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
@@ -51,19 +51,10 @@
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -71,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="267">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_WPN_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 전신옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temporary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,575 +236,467 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_HER_RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_WPN_002</t>
-  </si>
-  <si>
-    <t>ITM_WPN_003</t>
-  </si>
-  <si>
     <t>구리 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>소리 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집도구 테이블 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스트 가드 성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차징 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 특화 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 무게 특화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 강화 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 특화 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너 소비를 감소시켜주는 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상세정보 DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_HER_JSM</t>
+  </si>
+  <si>
+    <t>PAR_HER_JNB</t>
+  </si>
+  <si>
+    <t>PAR_HER_RSM</t>
+  </si>
+  <si>
+    <t>PAR_MIN_CPR</t>
+  </si>
+  <si>
+    <t>PAR_MIN_ROC</t>
+  </si>
+  <si>
+    <t>PAR_WPN_001</t>
+  </si>
+  <si>
+    <t>PAR_WPN_002</t>
+  </si>
+  <si>
+    <t>PAR_WPN_003</t>
+  </si>
+  <si>
+    <t>PAR_WPN_004</t>
+  </si>
+  <si>
+    <t>PAR_WPN_005</t>
+  </si>
+  <si>
+    <t>PAR_ARM_001</t>
+  </si>
+  <si>
+    <t>PAR_ARM_002</t>
+  </si>
+  <si>
+    <t>PAR_ARM_003</t>
+  </si>
+  <si>
+    <t>PAR_ARM_004</t>
+  </si>
+  <si>
+    <t>PAR_BPK_001</t>
+  </si>
+  <si>
+    <t>PAR_BPK_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_001</t>
+  </si>
+  <si>
+    <t>PAR_POT_002</t>
+  </si>
+  <si>
+    <t>PAR_POT_003</t>
+  </si>
+  <si>
+    <t>PAR_POT_004</t>
+  </si>
+  <si>
+    <t>PAR_DRP_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우치 최대 등록 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_register_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>pouchable</t>
+  </si>
+  <si>
+    <t>PAR_DT</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>sound_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>strong_Ratio</t>
+  </si>
+  <si>
+    <t>max_charge</t>
+  </si>
+  <si>
+    <t>strong_speed</t>
+  </si>
+  <si>
+    <t>guard_ratio</t>
+  </si>
+  <si>
+    <t>just_guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>max_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 버프/디버프 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 공격력 증가 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 정화 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong1/strong2/strong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 비용</t>
+  </si>
+  <si>
+    <t>수리 재료</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>repair_cost</t>
+  </si>
+  <si>
+    <t>repair_ing</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>기본으로 지급되는 견습용 곡괭이</t>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+  </si>
+  <si>
     <t>은 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집도구 테이블 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1타 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강공격 배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가드 성능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저스트 가드 성능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_POT_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 차징 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_WPN_004</t>
-  </si>
-  <si>
-    <t>ITM_WPN_005</t>
-  </si>
-  <si>
-    <t>강공격 이동속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 특화 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_ARM_002</t>
-  </si>
-  <si>
-    <t>ITM_ARM_003</t>
-  </si>
-  <si>
-    <t>ITM_ARM_004</t>
-  </si>
-  <si>
-    <t>최대 무게 특화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 강화 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_BPK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너 소비를 감소시켜주는 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_SIL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_GOL</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 최대 등록 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_register_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>usable</t>
-  </si>
-  <si>
-    <t>wearable</t>
-  </si>
-  <si>
-    <t>pouchable</t>
-  </si>
-  <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
-    <t>max_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>sound_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>strong_Ratio</t>
-  </si>
-  <si>
-    <t>max_charge</t>
-  </si>
-  <si>
-    <t>strong_speed</t>
-  </si>
-  <si>
-    <t>guard_ratio</t>
-  </si>
-  <si>
-    <t>just_guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>stamina</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>max_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여 버프/디버프 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 공격력 증가 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 정화 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong1/strong2/strong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 비용</t>
-  </si>
-  <si>
-    <t>수리 재료</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>repair_cost</t>
-  </si>
-  <si>
-    <t>repair_ing</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>기본으로 지급되는 견습용 곡괭이</t>
-  </si>
-  <si>
-    <t>구리 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
-    <t>은 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>금 곡괭이</t>
-  </si>
-  <si>
-    <t>ITM_MIN_GOL</t>
   </si>
   <si>
     <t>공격력 특화 곡괭이</t>
   </si>
   <si>
-    <t>철 곡괭이</t>
-  </si>
-  <si>
-    <t>방어 특화 곡괭이</t>
-  </si>
-  <si>
     <t>PAR_WPN_006</t>
   </si>
   <si>
-    <t xml:space="preserve">금 곡괭이+ </t>
-  </si>
-  <si>
     <t>강공격 특화 곡괭이</t>
   </si>
   <si>
@@ -843,12 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_SWP_001</t>
-  </si>
-  <si>
-    <t>ITM_SWP_002</t>
-  </si>
-  <si>
     <t>구리 망치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,9 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_WPN_006</t>
-  </si>
-  <si>
     <t>낡은 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAR_HON_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,12 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_HON_002</t>
-  </si>
-  <si>
-    <t>PAR_HON_003</t>
-  </si>
-  <si>
     <t>숫돌(중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,18 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_POT_002</t>
-  </si>
-  <si>
-    <t>ITM_POT_003</t>
-  </si>
-  <si>
-    <t>ITM_POT_004</t>
-  </si>
-  <si>
-    <t>ITM_POT_005</t>
-  </si>
-  <si>
     <t>PAR_POT_005</t>
   </si>
   <si>
@@ -997,16 +833,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_POT_006</t>
-  </si>
-  <si>
     <t>PAR_POT_006</t>
   </si>
   <si>
-    <t>PAR_POT_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,6 +846,196 @@
   <si>
     <t>""</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 곡괭이 : 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 곡괭이 : 경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이 : 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이 : 경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_WPN_007</t>
+  </si>
+  <si>
+    <t>PAR_WPN_008</t>
+  </si>
+  <si>
+    <t>PAR_WPN_009</t>
+  </si>
+  <si>
+    <t>가드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGuard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_MIN_TIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_MIN_LAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR_MIN_IRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 특화 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_TIN</t>
+  </si>
+  <si>
+    <t>HER_JSM</t>
+  </si>
+  <si>
+    <t>HER_JNB</t>
+  </si>
+  <si>
+    <t>HER_RSM</t>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
+  </si>
+  <si>
+    <t>MIN_LAD</t>
+  </si>
+  <si>
+    <t>MIN_IRN</t>
+  </si>
+  <si>
+    <t>MIN_ROC</t>
+  </si>
+  <si>
+    <t>DRP_SCR</t>
+  </si>
+  <si>
+    <t>HON_001</t>
+  </si>
+  <si>
+    <t>WPN_001</t>
+  </si>
+  <si>
+    <t>WPN_002</t>
+  </si>
+  <si>
+    <t>WPN_003</t>
+  </si>
+  <si>
+    <t>WPN_004</t>
+  </si>
+  <si>
+    <t>WPN_005</t>
+  </si>
+  <si>
+    <t>WPN_006</t>
+  </si>
+  <si>
+    <t>WPN_007</t>
+  </si>
+  <si>
+    <t>WPN_008</t>
+  </si>
+  <si>
+    <t>WPN_009</t>
+  </si>
+  <si>
+    <t>ARM_001</t>
+  </si>
+  <si>
+    <t>ARM_002</t>
+  </si>
+  <si>
+    <t>ARM_003</t>
+  </si>
+  <si>
+    <t>ARM_004</t>
+  </si>
+  <si>
+    <t>BPK_001</t>
+  </si>
+  <si>
+    <t>BPK_002</t>
+  </si>
+  <si>
+    <t>SWP_001</t>
+  </si>
+  <si>
+    <t>SWP_002</t>
+  </si>
+  <si>
+    <t>POT_001</t>
+  </si>
+  <si>
+    <t>POT_002</t>
+  </si>
+  <si>
+    <t>POT_003</t>
+  </si>
+  <si>
+    <t>POT_004</t>
+  </si>
+  <si>
+    <t>POT_005</t>
+  </si>
+  <si>
+    <t>POT_006</t>
+  </si>
+  <si>
+    <t>HON_002</t>
+  </si>
+  <si>
+    <t>HON_003</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,8 +1083,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1088,11 +1113,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1112,6 +1165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1130,7 +1187,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1531,28 +1588,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="19.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1560,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1581,25 +1638,25 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1628,83 +1685,83 @@
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1">
         <v>99</v>
@@ -1734,21 +1791,21 @@
         <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1">
         <v>99</v>
@@ -1778,21 +1835,21 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1">
         <v>99</v>
@@ -1822,21 +1879,21 @@
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1">
         <v>99</v>
@@ -1866,21 +1923,21 @@
         <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
@@ -1892,7 +1949,7 @@
         <v>0.4</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1910,33 +1967,33 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1954,33 +2011,33 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1998,21 +2055,21 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
@@ -2021,130 +2078,130 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>1.5</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>500</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2156,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -2174,21 +2231,21 @@
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2200,52 +2257,52 @@
         <v>5</v>
       </c>
       <c r="I15" s="1">
+        <v>100</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
         <v>150</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1">
-        <v>200</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -2262,21 +2319,21 @@
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2285,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <v>200</v>
@@ -2306,21 +2363,21 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2329,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1">
         <v>200</v>
@@ -2350,33 +2407,33 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2394,77 +2451,77 @@
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>300</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="1">
-        <v>150</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2482,33 +2539,33 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2526,21 +2583,21 @@
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2570,21 +2627,21 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2596,347 +2653,347 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
+        <v>150</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>200</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
         <v>100</v>
       </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
         <v>3</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I28" s="1">
         <v>100</v>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I29" s="1">
         <v>100</v>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="1">
         <v>10</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.1</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -2966,7 +3023,183 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>252</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2983,34 +3216,34 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3024,29 +3257,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3056,266 +3289,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3323,16 +3296,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.09765625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3340,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3357,26 +3330,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3385,85 +3358,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.3984375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
+      <c r="K1" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3491,78 +3472,90 @@
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>158</v>
+        <v>129</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3571,7 +3564,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1.3</v>
@@ -3583,42 +3576,48 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
         <v>50</v>
       </c>
-      <c r="L4">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1.3</v>
@@ -3630,42 +3629,48 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
         <v>50</v>
       </c>
-      <c r="L5">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1.3</v>
@@ -3677,42 +3682,48 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K6">
+        <v>150</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
         <v>50</v>
       </c>
-      <c r="L6">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1">
-        <v>150</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>70</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1.3</v>
@@ -3724,188 +3735,332 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
         <v>50</v>
       </c>
-      <c r="L7">
-        <v>70</v>
-      </c>
-      <c r="M7" s="1">
-        <v>200</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
         <v>70</v>
       </c>
-      <c r="L8">
+      <c r="P8" s="10">
+        <v>90</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="M8" s="1">
-        <v>200</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
       <c r="F9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1.3</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>250</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>50</v>
+      </c>
+      <c r="P10" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
         <v>1.333</v>
       </c>
-      <c r="I9">
-        <v>1.5</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="K9">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
         <v>70</v>
       </c>
-      <c r="M9" s="1">
-        <v>200</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9">
+      <c r="P11" s="10">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D13"/>
+      <c r="N12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D14"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -3913,10 +4068,11 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3924,10 +4080,11 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -3935,10 +4092,11 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -3946,10 +4104,11 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -3957,10 +4116,11 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -3968,10 +4128,11 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -3979,13 +4140,274 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.09765625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3994,23 +4416,23 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.3984375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -4027,16 +4449,16 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4059,35 +4481,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4102,15 +4524,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -4125,15 +4547,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4148,15 +4570,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4171,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4188,44 +4610,44 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4239,38 +4661,38 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -4282,15 +4704,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -4302,64 +4724,64 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4376,36 +4798,36 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4419,103 +4841,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -4528,25 +4950,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="43.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="44.09765625" customWidth="1"/>
+    <col min="7" max="7" width="43.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4554,16 +4976,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4572,7 +4994,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4596,22 +5018,22 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -4620,34 +5042,34 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -4656,115 +5078,115 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4776,7 +5198,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4788,7 +5210,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4800,7 +5222,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4812,7 +5234,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4824,7 +5246,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4836,7 +5258,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4848,7 +5270,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4860,7 +5282,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4872,7 +5294,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4899,30 +5321,30 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4931,7 +5353,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4949,16 +5371,16 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -4967,61 +5389,61 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5031,7 +5453,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5041,7 +5463,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5051,7 +5473,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5061,7 +5483,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5071,7 +5493,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5081,7 +5503,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5091,7 +5513,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5101,7 +5523,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5111,7 +5533,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5121,7 +5543,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5131,7 +5553,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5141,7 +5563,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB915DA9-F504-4A70-85EF-B3B4B0F2ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425A384-7F2E-49A5-91E5-5DE57E10DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -1590,26 +1590,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="19.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>233</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>234</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>235</v>
       </c>
@@ -1882,12 +1882,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1926,12 +1926,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>221</v>
@@ -1970,12 +1970,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>223</v>
@@ -2014,12 +2014,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>226</v>
@@ -2058,12 +2058,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -2102,7 +2102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>240</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>241</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>242</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>243</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>244</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>245</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>246</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>248</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>249</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>250</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>251</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>252</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>253</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>254</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>255</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>256</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>257</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>258</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>259</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>260</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>261</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>262</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>263</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>264</v>
       </c>
@@ -3216,20 +3216,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3296,16 +3296,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>240</v>
       </c>
@@ -3362,33 +3362,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>242</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>243</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>244</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>245</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>246</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>247</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>248</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>249</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>250</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4038,7 +4038,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4049,7 +4049,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4060,7 +4060,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4072,7 +4072,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4084,7 +4084,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4096,7 +4096,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4108,7 +4108,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4120,7 +4120,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4132,7 +4132,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4159,19 +4159,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>233</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>234</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>235</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>232</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>238</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>239</v>
       </c>
@@ -4419,20 +4419,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.3984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>251</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>252</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>253</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>254</v>
       </c>
@@ -4610,21 +4610,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>255</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>256</v>
       </c>
@@ -4727,61 +4727,61 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4798,19 +4798,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>257</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>258</v>
       </c>
@@ -4883,61 +4883,61 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -4954,21 +4954,21 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="44.09765625" customWidth="1"/>
-    <col min="7" max="7" width="43.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>259</v>
@@ -5066,7 +5066,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>260</v>
@@ -5090,7 +5090,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>261</v>
@@ -5114,7 +5114,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>262</v>
@@ -5138,7 +5138,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>263</v>
@@ -5162,7 +5162,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>264</v>
@@ -5186,7 +5186,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5198,7 +5198,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5210,7 +5210,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5222,7 +5222,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5234,7 +5234,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5246,7 +5246,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5258,7 +5258,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5270,7 +5270,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5282,7 +5282,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5294,7 +5294,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5321,19 +5321,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>241</v>
@@ -5407,7 +5407,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>265</v>
@@ -5425,7 +5425,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>266</v>
@@ -5443,7 +5443,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5453,7 +5453,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5463,7 +5463,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5473,7 +5473,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5483,7 +5483,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5493,7 +5493,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5503,7 +5503,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5513,7 +5513,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5523,7 +5523,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5533,7 +5533,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5543,7 +5543,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5553,7 +5553,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5563,7 +5563,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425A384-7F2E-49A5-91E5-5DE57E10DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A00C33-2BDF-44D5-81FA-005D7C14F9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
-    <sheet name="DropItem" sheetId="15" r:id="rId2"/>
-    <sheet name="Weapon" sheetId="3" r:id="rId3"/>
-    <sheet name="ThrowItem" sheetId="10" r:id="rId4"/>
+    <sheet name="MiscItem" sheetId="15" r:id="rId2"/>
+    <sheet name="ThrowableItem" sheetId="10" r:id="rId3"/>
+    <sheet name="Weapon" sheetId="3" r:id="rId4"/>
     <sheet name="Armor" sheetId="4" r:id="rId5"/>
     <sheet name="Backpack" sheetId="13" r:id="rId6"/>
     <sheet name="SubWeapon" sheetId="14" r:id="rId7"/>
@@ -29,8 +29,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id" localSheetId="1">OFFSET(DropItem!$B$7,0,0,COUNTA(DropItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(ThrowItem!$B$7,0,0,COUNTA(ThrowItem!$B:$B),1)</definedName>
+    <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$7,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(ThrowableItem!$B$5,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="242">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,26 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 전신옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쟈스민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 광석 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 약초 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소형 공격력 증가 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더미 드랍템 데이터.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temporary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,18 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던질 수 있는 돌멩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥬니퍼베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로즈마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨디션 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경량 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,18 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강공격 이동속도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개수 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 특화 파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테미너 소비를 감소시켜주는 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,98 +308,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 장착가능 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파우치 등록 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 상세정보 DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAR_HER_JSM</t>
-  </si>
-  <si>
-    <t>PAR_HER_JNB</t>
-  </si>
-  <si>
-    <t>PAR_HER_RSM</t>
-  </si>
-  <si>
-    <t>PAR_MIN_CPR</t>
-  </si>
-  <si>
-    <t>PAR_MIN_ROC</t>
-  </si>
-  <si>
-    <t>PAR_WPN_001</t>
-  </si>
-  <si>
-    <t>PAR_WPN_002</t>
-  </si>
-  <si>
-    <t>PAR_WPN_003</t>
-  </si>
-  <si>
-    <t>PAR_WPN_004</t>
-  </si>
-  <si>
-    <t>PAR_WPN_005</t>
-  </si>
-  <si>
-    <t>PAR_ARM_001</t>
-  </si>
-  <si>
-    <t>PAR_ARM_002</t>
-  </si>
-  <si>
-    <t>PAR_ARM_003</t>
-  </si>
-  <si>
-    <t>PAR_ARM_004</t>
-  </si>
-  <si>
-    <t>PAR_BPK_001</t>
-  </si>
-  <si>
-    <t>PAR_BPK_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_001</t>
-  </si>
-  <si>
-    <t>PAR_POT_002</t>
-  </si>
-  <si>
-    <t>PAR_POT_003</t>
-  </si>
-  <si>
-    <t>PAR_POT_004</t>
-  </si>
-  <si>
-    <t>PAR_DRP_SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,15 +358,9 @@
     <t>usable</t>
   </si>
   <si>
-    <t>wearable</t>
-  </si>
-  <si>
     <t>pouchable</t>
   </si>
   <si>
-    <t>PAR_DT</t>
-  </si>
-  <si>
     <t>max_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,30 +540,13 @@
     <t>공격력 특화 곡괭이</t>
   </si>
   <si>
-    <t>PAR_WPN_006</t>
-  </si>
-  <si>
     <t>강공격 특화 곡괭이</t>
   </si>
   <si>
-    <t>PAR_SWP_001</t>
-  </si>
-  <si>
-    <t>PAR_SWP_002</t>
-  </si>
-  <si>
     <t>채집 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구리 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주석 망치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낡은 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_HON_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숫돌 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,14 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>THROW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,9 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_POT_005</t>
-  </si>
-  <si>
     <t>BOTTLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,9 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_POT_006</t>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,15 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_WPN_007</t>
-  </si>
-  <si>
-    <t>PAR_WPN_008</t>
-  </si>
-  <si>
-    <t>PAR_WPN_009</t>
-  </si>
-  <si>
     <t>가드 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_MIN_TIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>납</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,10 +703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_MIN_LAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAR_MIN_IRN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>속도 특화 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,15 +726,6 @@
     <t>MIN_TIN</t>
   </si>
   <si>
-    <t>HER_JSM</t>
-  </si>
-  <si>
-    <t>HER_JNB</t>
-  </si>
-  <si>
-    <t>HER_RSM</t>
-  </si>
-  <si>
     <t>MIN_CPR</t>
   </si>
   <si>
@@ -957,9 +738,6 @@
     <t>MIN_ROC</t>
   </si>
   <si>
-    <t>DRP_SCR</t>
-  </si>
-  <si>
     <t>HON_001</t>
   </si>
   <si>
@@ -990,52 +768,202 @@
     <t>WPN_009</t>
   </si>
   <si>
+    <t>ARM_002</t>
+  </si>
+  <si>
+    <t>ARM_003</t>
+  </si>
+  <si>
+    <t>ARM_004</t>
+  </si>
+  <si>
+    <t>BPK_001</t>
+  </si>
+  <si>
+    <t>BPK_002</t>
+  </si>
+  <si>
+    <t>SWP_001</t>
+  </si>
+  <si>
+    <t>SWP_002</t>
+  </si>
+  <si>
+    <t>POT_001</t>
+  </si>
+  <si>
+    <t>POT_002</t>
+  </si>
+  <si>
+    <t>POT_003</t>
+  </si>
+  <si>
+    <t>POT_004</t>
+  </si>
+  <si>
+    <t>POT_005</t>
+  </si>
+  <si>
+    <t>POT_006</t>
+  </si>
+  <si>
+    <t>HON_002</t>
+  </si>
+  <si>
+    <t>HON_003</t>
+  </si>
+  <si>
+    <t>촛불고사리 순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛불고사리 열매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_CGR_FRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_CGR_LEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_RSM_LEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리 잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_RSM_FLW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_CGR_FLW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛불고사리 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM_005</t>
+  </si>
+  <si>
+    <t>ARM_006</t>
+  </si>
+  <si>
+    <t>ARM_007</t>
+  </si>
+  <si>
+    <t>철 갑옷 : 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷 : 경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 갑옷 : 강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 갑옷 : 경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ARM_001</t>
-  </si>
-  <si>
-    <t>ARM_002</t>
-  </si>
-  <si>
-    <t>ARM_003</t>
-  </si>
-  <si>
-    <t>ARM_004</t>
-  </si>
-  <si>
-    <t>BPK_001</t>
-  </si>
-  <si>
-    <t>BPK_002</t>
-  </si>
-  <si>
-    <t>SWP_001</t>
-  </si>
-  <si>
-    <t>SWP_002</t>
-  </si>
-  <si>
-    <t>POT_001</t>
-  </si>
-  <si>
-    <t>POT_002</t>
-  </si>
-  <si>
-    <t>POT_003</t>
-  </si>
-  <si>
-    <t>POT_004</t>
-  </si>
-  <si>
-    <t>POT_005</t>
-  </si>
-  <si>
-    <t>POT_006</t>
-  </si>
-  <si>
-    <t>HON_002</t>
-  </si>
-  <si>
-    <t>HON_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 기본으로 장착하고 있는 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_003</t>
+  </si>
+  <si>
+    <t>경량 가죽 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 기본으로 장착하고 있는 가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석 끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납 끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWP_003</t>
+  </si>
+  <si>
+    <t>SWP_004</t>
+  </si>
+  <si>
+    <t>SWP_005</t>
+  </si>
+  <si>
+    <t>이거 설명 안넣으면 오류 안나지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1588,28 +1516,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="19.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1638,25 +1566,22 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1685,83 +1610,77 @@
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1">
         <v>99</v>
@@ -1776,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1787,69 +1706,60 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>99</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>99</v>
@@ -1861,10 +1771,10 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1875,40 +1785,34 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>99</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1919,25 +1823,19 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
@@ -1946,174 +1844,150 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
@@ -2122,42 +1996,36 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -2178,30 +2046,24 @@
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2222,30 +2084,27 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2266,30 +2125,27 @@
         <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2310,30 +2166,27 @@
         <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2354,30 +2207,27 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2398,30 +2248,27 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2442,30 +2289,27 @@
         <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2486,30 +2330,27 @@
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2530,30 +2371,27 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2574,30 +2412,27 @@
         <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2609,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2618,30 +2453,27 @@
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2653,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2662,30 +2494,27 @@
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2697,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2706,39 +2535,36 @@
         <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I26" s="1">
         <v>200</v>
@@ -2750,130 +2576,121 @@
         <v>0</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>200</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>3</v>
       </c>
-      <c r="I27" s="1">
-        <v>100</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
       <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>300</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2882,30 +2699,27 @@
         <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2926,280 +2740,513 @@
         <v>0</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>200</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>200</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>150</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>200</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>300</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1">
         <v>10</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
         <v>0.1</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
         <v>0.5</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
         <v>0.5</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.5</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.5</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
         <v>0.5</v>
       </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>206</v>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3216,34 +3263,34 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3257,29 +3304,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3290,22 +3337,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3313,43 +3359,47 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3359,92 +3409,302 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3473,16 +3733,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>6</v>
@@ -3491,71 +3751,65 @@
         <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3582,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="N4" s="10" t="b">
         <v>1</v>
@@ -3599,16 +3853,13 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3635,7 +3886,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -3652,16 +3903,13 @@
       <c r="Q5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3688,7 +3936,7 @@
         <v>150</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -3705,16 +3953,13 @@
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -3741,7 +3986,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -3758,16 +4003,13 @@
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -3794,7 +4036,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -3811,16 +4053,13 @@
       <c r="Q8" t="b">
         <v>1</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3847,7 +4086,7 @@
         <v>250</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -3864,16 +4103,13 @@
       <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3900,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -3917,16 +4153,13 @@
       <c r="Q10" t="b">
         <v>1</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -3953,7 +4186,7 @@
         <v>250</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -3970,16 +4203,13 @@
       <c r="Q11" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -4006,7 +4236,7 @@
         <v>250</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -4023,11 +4253,8 @@
       <c r="Q12" t="b">
         <v>1</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4038,7 +4265,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4049,7 +4276,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4060,7 +4287,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4072,7 +4299,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4084,7 +4311,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4096,7 +4323,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4108,7 +4335,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4120,7 +4347,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4132,7 +4359,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4151,365 +4378,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4523,16 +4480,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -4546,16 +4500,13 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4564,21 +4515,18 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4592,8 +4540,65 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>67</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4604,50 +4609,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4661,127 +4662,129 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
         <v>50</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4792,42 +4795,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4837,108 +4836,72 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4954,21 +4917,21 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="43.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="44.09765625" customWidth="1"/>
+    <col min="7" max="7" width="43.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4976,16 +4939,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4994,7 +4957,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5018,22 +4981,22 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -5042,34 +5005,34 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -5078,115 +5041,115 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5198,7 +5161,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5210,7 +5173,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5222,7 +5185,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5234,7 +5197,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5246,7 +5209,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5258,7 +5221,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5270,7 +5233,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5282,7 +5245,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5294,7 +5257,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5321,30 +5284,30 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -5353,7 +5316,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5371,16 +5334,16 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -5389,61 +5352,61 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5453,7 +5416,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5463,7 +5426,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5473,7 +5436,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5483,7 +5446,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5493,7 +5456,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5503,7 +5466,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5513,7 +5476,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5523,7 +5486,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5533,7 +5496,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5543,7 +5506,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5553,7 +5516,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5563,7 +5526,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A00C33-2BDF-44D5-81FA-005D7C14F9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1D16C-03F2-4E3F-B5E5-6DA0EFA60EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="1740" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="244">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,10 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOTTLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션 병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,6 +959,18 @@
   </si>
   <si>
     <t>이거 설명 안넣으면 오류 안나지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,26 +1526,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.4140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1669,15 +1677,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
@@ -1707,18 +1715,18 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1748,15 +1756,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1786,15 +1794,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1824,12 +1832,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -1862,15 +1870,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>64</v>
@@ -1900,18 +1908,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -1938,18 +1946,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
@@ -1976,12 +1984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -2014,9 +2022,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>143</v>
@@ -2052,9 +2060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>144</v>
@@ -2093,9 +2101,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>144</v>
@@ -2134,15 +2142,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>66</v>
@@ -2175,15 +2183,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -2216,15 +2224,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
@@ -2257,15 +2265,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
@@ -2295,12 +2303,12 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>144</v>
@@ -2339,15 +2347,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -2380,15 +2388,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -2418,18 +2426,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2459,12 +2467,12 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>145</v>
@@ -2500,18 +2508,18 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
@@ -2541,18 +2549,18 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2585,15 +2593,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2626,15 +2634,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2667,15 +2675,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2708,15 +2716,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2746,18 +2754,18 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2790,9 +2798,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>146</v>
@@ -2831,15 +2839,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -2869,15 +2877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2907,15 +2915,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -2945,15 +2953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -2983,15 +2991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3021,15 +3029,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3059,9 +3067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>148</v>
@@ -3097,9 +3105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>148</v>
@@ -3135,9 +3143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>148</v>
@@ -3173,9 +3181,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>148</v>
@@ -3211,9 +3219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>148</v>
@@ -3263,20 +3271,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3290,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3304,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3340,18 +3348,18 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3370,7 +3378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3378,28 +3386,28 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3416,18 +3424,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3490,12 +3498,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3510,9 +3518,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -3530,12 +3538,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3550,12 +3558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3570,12 +3578,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3590,9 +3598,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -3610,9 +3618,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3630,28 +3638,28 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>131</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>43</v>
@@ -3701,10 +3709,10 @@
         <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3754,7 +3762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>132</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>86</v>
@@ -3801,12 +3809,12 @@
         <v>87</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>128</v>
@@ -3854,9 +3862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -3886,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -3904,12 +3912,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3936,7 +3944,7 @@
         <v>150</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -3954,12 +3962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -3986,7 +3994,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -4004,12 +4012,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -4036,7 +4044,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -4054,12 +4062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -4086,7 +4094,7 @@
         <v>250</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -4104,9 +4112,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -4136,7 +4144,7 @@
         <v>250</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -4154,12 +4162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -4186,7 +4194,7 @@
         <v>250</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -4204,12 +4212,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -4236,7 +4244,7 @@
         <v>250</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -4254,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4265,7 +4273,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4276,7 +4284,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4287,7 +4295,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4299,7 +4307,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4311,7 +4319,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4323,7 +4331,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4335,7 +4343,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4347,7 +4355,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4359,7 +4367,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4386,19 +4394,19 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4461,12 +4469,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4481,9 +4489,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4501,12 +4509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4521,12 +4529,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4541,12 +4549,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4561,12 +4569,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4581,12 +4589,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4615,20 +4623,20 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4665,7 +4673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4682,12 +4690,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4699,12 +4707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4716,9 +4724,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -4733,58 +4741,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4801,18 +4809,18 @@
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4848,56 +4856,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4911,27 +4919,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="44.09765625" customWidth="1"/>
-    <col min="7" max="7" width="43.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="44.08203125" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4945,19 +4953,22 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4969,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -4977,11 +4988,14 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4993,46 +5007,52 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>152</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -5040,23 +5060,26 @@
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -5064,23 +5087,26 @@
       <c r="D6" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>105</v>
@@ -5088,23 +5114,26 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>106</v>
@@ -5112,23 +5141,26 @@
       <c r="D8" s="1">
         <v>80</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
@@ -5136,20 +5168,23 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5160,8 +5195,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5172,8 +5208,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5184,8 +5221,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5196,8 +5234,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5208,8 +5247,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5220,8 +5260,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5232,8 +5273,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5244,8 +5286,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5256,8 +5299,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5268,6 +5312,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5284,19 +5329,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5316,7 +5361,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5334,7 +5379,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5352,10 +5397,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>137</v>
@@ -5370,10 +5415,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>140</v>
@@ -5388,10 +5433,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>141</v>
@@ -5406,7 +5451,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5416,7 +5461,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5426,7 +5471,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5436,7 +5481,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5446,7 +5491,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5456,7 +5501,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5466,7 +5511,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5476,7 +5521,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5486,7 +5531,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5496,7 +5541,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5506,7 +5551,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5516,7 +5561,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5526,7 +5571,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1D16C-03F2-4E3F-B5E5-6DA0EFA60EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="1740" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="969" yWindow="1741" windowWidth="19204" windowHeight="10054" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -44,17 +43,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -829,10 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HER_RSM_LEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,13 +975,17 @@
   </si>
   <si>
     <t>MIN_CPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1131,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1523,29 +1531,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="50.6640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1677,12 +1685,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>201</v>
@@ -1715,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>203</v>
       </c>
@@ -1755,16 +1763,19 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1793,16 +1804,19 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1831,13 +1845,16 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -1869,13 +1886,16 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>163</v>
@@ -1907,13 +1927,16 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>164</v>
@@ -1945,13 +1968,16 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>166</v>
@@ -1983,8 +2009,11 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2021,8 +2050,11 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>176</v>
       </c>
@@ -2059,8 +2091,11 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
@@ -2101,7 +2136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>179</v>
       </c>
@@ -2183,7 +2218,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>180</v>
       </c>
@@ -2224,7 +2259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>181</v>
       </c>
@@ -2265,7 +2300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>182</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>183</v>
       </c>
@@ -2347,7 +2382,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>184</v>
       </c>
@@ -2388,7 +2423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>185</v>
       </c>
@@ -2429,15 +2464,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2467,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>186</v>
       </c>
@@ -2508,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>187</v>
       </c>
@@ -2519,7 +2554,7 @@
         <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
@@ -2549,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>188</v>
       </c>
@@ -2560,7 +2595,7 @@
         <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2593,15 +2628,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2634,15 +2669,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2675,15 +2710,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2716,7 +2751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>189</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2754,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>190</v>
       </c>
@@ -2765,7 +2800,7 @@
         <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2798,9 +2833,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>146</v>
@@ -2839,7 +2874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>191</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -2876,8 +2911,11 @@
       <c r="M33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>192</v>
       </c>
@@ -2885,7 +2923,7 @@
         <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2914,16 +2952,19 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -2952,16 +2993,19 @@
       <c r="M35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -2990,16 +3034,19 @@
       <c r="M36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3028,8 +3075,11 @@
       <c r="M37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>193</v>
       </c>
@@ -3066,8 +3116,11 @@
       <c r="M38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>194</v>
       </c>
@@ -3104,8 +3157,11 @@
       <c r="M39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N39" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
@@ -3142,8 +3198,11 @@
       <c r="M40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>196</v>
       </c>
@@ -3180,8 +3239,11 @@
       <c r="M41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
@@ -3218,8 +3280,11 @@
       <c r="M42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>198</v>
       </c>
@@ -3255,36 +3320,40 @@
       </c>
       <c r="M43" t="b">
         <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +3395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3344,22 +3413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3370,7 +3439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>204</v>
       </c>
@@ -3394,20 +3463,20 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3417,25 +3486,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3478,7 +3547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3498,12 +3567,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3518,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>172</v>
       </c>
@@ -3538,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>171</v>
       </c>
@@ -3558,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
@@ -3578,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>174</v>
       </c>
@@ -3598,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
@@ -3616,50 +3685,46 @@
       </c>
       <c r="G9" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3712,7 +3777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +3827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>177</v>
       </c>
@@ -3862,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>178</v>
       </c>
@@ -3912,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
@@ -3962,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
@@ -4012,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>181</v>
       </c>
@@ -4062,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
@@ -4112,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>183</v>
       </c>
@@ -4162,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
@@ -4212,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>185</v>
       </c>
@@ -4262,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4273,7 +4338,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4284,7 +4349,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4295,7 +4360,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4307,7 +4372,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4319,7 +4384,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4331,7 +4396,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4343,7 +4408,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4355,7 +4420,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4367,7 +4432,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4387,26 +4452,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.4140625" customWidth="1"/>
-    <col min="6" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4429,7 +4494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4449,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4469,12 +4534,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4489,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
@@ -4509,12 +4574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4529,12 +4594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4549,12 +4614,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4569,12 +4634,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4589,12 +4654,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4616,27 +4681,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4673,7 +4738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4690,12 +4755,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4707,12 +4772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4724,9 +4789,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -4741,58 +4806,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4802,25 +4867,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4899,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4845,7 +4910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4856,56 +4921,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4918,28 +4983,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.9140625" customWidth="1"/>
-    <col min="7" max="7" width="44.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
     <col min="8" max="8" width="43.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>109</v>
@@ -4968,7 +5033,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5060,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5072,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>111</v>
@@ -5022,7 +5087,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>193</v>
@@ -5049,7 +5114,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>194</v>
@@ -5076,7 +5141,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>195</v>
@@ -5103,7 +5168,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>196</v>
@@ -5130,7 +5195,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>197</v>
@@ -5157,7 +5222,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>198</v>
@@ -5184,7 +5249,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5197,7 +5262,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5210,7 +5275,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5223,7 +5288,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5236,7 +5301,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5249,7 +5314,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5262,7 +5327,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5275,7 +5340,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5288,7 +5353,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5301,7 +5366,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5322,26 +5387,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6818FF-BD1E-4E5C-990F-172E1BFF2BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5361,7 +5426,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5379,7 +5444,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5397,7 +5462,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -5415,7 +5480,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -5433,7 +5498,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>200</v>
@@ -5451,7 +5516,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5461,7 +5526,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5471,7 +5536,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5481,7 +5546,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5491,7 +5556,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5501,7 +5566,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5511,7 +5576,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5521,7 +5586,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5531,7 +5596,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5541,7 +5606,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5551,7 +5616,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5561,7 +5626,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5571,7 +5636,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407CDE32-2A8A-4070-9FA7-190C86388D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="969" yWindow="1741" windowWidth="19204" windowHeight="10054" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
     <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$7,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
     <definedName name="사용템id">OFFSET(ThrowableItem!$B$5,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
-    <definedName name="아이템id">OFFSET(Item!$B$4,0,0,COUNTA(Item!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET(Item!$B$5,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,26 +44,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FD595059-0693-49EC-8400-D9EEC9EFBCFD}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     사용거리가 0이라면 설치형 아이템</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -70,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="246">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,13 +971,21 @@
   </si>
   <si>
     <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ResourceNode"/>
@@ -1531,29 +1531,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.69921875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1685,30 +1685,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="1">
-        <v>99</v>
+        <v>9999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -1720,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1743,39 +1743,39 @@
         <v>99</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1784,39 +1784,39 @@
         <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1825,13 +1825,13 @@
         <v>99</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1846,62 +1846,62 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
@@ -1910,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I9" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1927,34 +1927,34 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1969,33 +1969,33 @@
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -2010,141 +2010,141 @@
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>30</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.5</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="1">
         <v>1.5</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <v>500</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>66</v>
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>66</v>
@@ -2200,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -2215,18 +2215,18 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -2235,13 +2235,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
       </c>
       <c r="I17" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2256,18 +2256,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1">
         <v>200</v>
@@ -2297,18 +2297,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>200</v>
@@ -2338,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
@@ -2358,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
       <c r="I20" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2379,18 +2379,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1">
         <v>300</v>
@@ -2420,18 +2420,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -2443,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1">
         <v>300</v>
@@ -2461,18 +2461,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2481,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2502,18 +2502,18 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2543,18 +2543,18 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
@@ -2563,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2584,18 +2584,18 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2625,18 +2625,18 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I27" s="1">
         <v>200</v>
@@ -2666,18 +2666,18 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2689,10 +2689,10 @@
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -2707,18 +2707,18 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
         <v>300</v>
@@ -2748,18 +2748,18 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2768,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2789,18 +2789,18 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2809,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2830,18 +2830,18 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1">
         <v>200</v>
@@ -2871,18 +2871,18 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -2891,13 +2891,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -2911,19 +2911,19 @@
       <c r="M33" t="b">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2932,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
         <v>2</v>
       </c>
       <c r="I34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -2953,18 +2953,18 @@
         <v>1</v>
       </c>
       <c r="N34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -2994,18 +2994,18 @@
         <v>1</v>
       </c>
       <c r="N35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3014,13 +3014,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -3035,18 +3035,18 @@
         <v>1</v>
       </c>
       <c r="N36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3061,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -3076,33 +3076,33 @@
         <v>1</v>
       </c>
       <c r="N37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -3114,33 +3114,33 @@
         <v>0</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3149,27 +3149,27 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
@@ -3199,18 +3199,18 @@
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -3281,18 +3281,18 @@
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -3322,6 +3322,47 @@
         <v>0</v>
       </c>
       <c r="N43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3333,27 +3374,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3381,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3413,22 +3454,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3439,7 +3480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3455,7 +3496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>204</v>
       </c>
@@ -3463,7 +3504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>206</v>
       </c>
@@ -3471,7 +3512,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
@@ -3486,25 +3527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3547,7 +3588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3567,7 +3608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>212</v>
       </c>
@@ -3587,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>172</v>
       </c>
@@ -3607,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>171</v>
       </c>
@@ -3627,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
@@ -3647,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>174</v>
       </c>
@@ -3667,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
@@ -3696,35 +3737,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3777,7 +3818,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3827,7 +3868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3877,7 +3918,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>177</v>
       </c>
@@ -3927,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>178</v>
       </c>
@@ -3977,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
@@ -4027,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
@@ -4077,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>181</v>
       </c>
@@ -4127,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
@@ -4177,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>183</v>
       </c>
@@ -4227,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
@@ -4277,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>185</v>
       </c>
@@ -4327,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4338,7 +4379,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4349,7 +4390,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4360,7 +4401,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4372,7 +4413,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4384,7 +4425,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4396,7 +4437,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4408,7 +4449,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4420,7 +4461,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4432,7 +4473,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4452,26 +4493,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4494,7 +4535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4514,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4534,7 +4575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
@@ -4554,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
@@ -4574,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
@@ -4594,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
@@ -4614,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>216</v>
       </c>
@@ -4634,7 +4675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>217</v>
       </c>
@@ -4654,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>218</v>
       </c>
@@ -4681,27 +4722,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4721,7 +4762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4738,7 +4779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +4796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
@@ -4772,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
@@ -4789,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>228</v>
       </c>
@@ -4806,58 +4847,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F24" s="8"/>
     </row>
   </sheetData>
@@ -4867,25 +4908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4899,7 +4940,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4910,7 +4951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4921,7 +4962,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>191</v>
       </c>
@@ -4932,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
@@ -4943,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>236</v>
       </c>
@@ -4954,7 +4995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>237</v>
       </c>
@@ -4965,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>238</v>
       </c>
@@ -4983,28 +5024,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="44.09765625" customWidth="1"/>
+    <col min="8" max="8" width="43.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5033,7 +5074,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5060,7 +5101,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5087,7 +5128,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>193</v>
@@ -5114,7 +5155,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>194</v>
@@ -5141,7 +5182,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>195</v>
@@ -5168,7 +5209,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>196</v>
@@ -5195,7 +5236,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>197</v>
@@ -5222,7 +5263,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>198</v>
@@ -5249,7 +5290,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5262,7 +5303,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5275,7 +5316,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5288,7 +5329,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5301,7 +5342,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5314,7 +5355,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5327,7 +5368,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5340,7 +5381,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5353,7 +5394,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5366,7 +5407,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5387,26 +5428,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5467,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5444,7 +5485,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5462,7 +5503,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -5480,7 +5521,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -5498,7 +5539,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>200</v>
@@ -5516,7 +5557,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5526,7 +5567,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5536,7 +5577,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5546,7 +5587,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5556,7 +5597,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5566,7 +5607,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5576,7 +5617,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5586,7 +5627,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5596,7 +5637,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5606,7 +5647,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5616,7 +5657,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5626,7 +5667,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5636,7 +5677,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407CDE32-2A8A-4070-9FA7-190C86388D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD476D7-133E-4E31-B32B-EB3F3BB2B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$7,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(ThrowableItem!$B$5,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
+    <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$8,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(ThrowableItem!$B$6,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
     <definedName name="아이템id">OFFSET(Item!$B$5,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="251">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,6 +979,26 @@
   </si>
   <si>
     <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_BBR_FRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛베리 열매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_BBR_FRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛베리 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛베리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1810,13 +1830,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1831,7 +1851,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1845,19 +1865,19 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
-        <v>2</v>
+      <c r="N7" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -1869,39 +1889,39 @@
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
@@ -1910,92 +1930,92 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>243</v>
+      <c r="N9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -2009,34 +2029,34 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>5</v>
+      <c r="N11" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -2051,77 +2071,77 @@
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1">
         <v>99</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>0.5</v>
       </c>
       <c r="I13" s="1">
+        <v>20</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
         <v>5</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2133,100 +2153,100 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="1">
         <v>5</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>122</v>
+      <c r="N15" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I16" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>123</v>
+      <c r="N16" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -2241,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2256,18 +2276,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
@@ -2276,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2297,18 +2317,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
@@ -2317,13 +2337,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2338,18 +2358,18 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
@@ -2361,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
         <v>200</v>
@@ -2379,18 +2399,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -2399,13 +2419,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2420,18 +2440,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -2440,13 +2460,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="1">
-        <v>8</v>
-      </c>
       <c r="I22" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2461,18 +2481,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2484,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1">
         <v>300</v>
@@ -2502,18 +2522,18 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2522,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2543,18 +2563,18 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
@@ -2563,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2584,18 +2604,18 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2604,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2625,18 +2645,18 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2645,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="1">
-        <v>8</v>
-      </c>
       <c r="I27" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -2666,18 +2686,18 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2686,13 +2706,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -2707,18 +2727,18 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2730,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I29" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2753,13 +2773,13 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2771,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2794,13 +2814,13 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2809,13 +2829,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2830,18 +2850,18 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2850,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2871,18 +2891,18 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -2891,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -2912,18 +2932,18 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2932,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -2952,19 +2972,19 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
+      <c r="N34" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -2976,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -2993,19 +3013,19 @@
       <c r="M35" t="b">
         <v>1</v>
       </c>
-      <c r="N35" s="1">
-        <v>2</v>
+      <c r="N35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3014,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -3035,18 +3055,18 @@
         <v>1</v>
       </c>
       <c r="N36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3055,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -3076,18 +3096,18 @@
         <v>1</v>
       </c>
       <c r="N37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3096,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -3117,33 +3137,33 @@
         <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -3155,74 +3175,74 @@
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>300</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
         <v>5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F41" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3231,27 +3251,27 @@
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -3281,18 +3301,18 @@
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -3322,18 +3342,18 @@
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>66</v>
@@ -3363,6 +3383,88 @@
         <v>0</v>
       </c>
       <c r="N44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3455,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3506,17 +3608,25 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3528,10 +3638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3539,7 +3649,7 @@
     <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -3630,19 +3740,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -3650,10 +3760,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3670,16 +3780,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -3690,16 +3800,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
@@ -3710,21 +3820,41 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD476D7-133E-4E31-B32B-EB3F3BB2B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AAE1C-7E0A-4613-919D-09FE162829EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="253">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -999,6 +999,14 @@
   </si>
   <si>
     <t>별빛베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 파우치 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouch_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -4853,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4865,14 +4873,15 @@
     <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4886,13 +4895,16 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4903,13 +4915,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4920,13 +4935,16 @@
         <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
@@ -4937,13 +4955,16 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
@@ -4954,13 +4975,16 @@
         <v>40</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>228</v>
       </c>
@@ -4971,65 +4995,68 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AAE1C-7E0A-4613-919D-09FE162829EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD304F1-E012-4296-905B-8C21F6324876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -29,9 +29,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET([1]ResourceNode_DropTable!$B$4,0,0,COUNTA([1]ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$8,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET(ThrowableItem!$B$6,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
-    <definedName name="아이템id">OFFSET(Item!$B$5,0,0,COUNTA(Item!$B:$B),1)</definedName>
+    <definedName name="사용템id" localSheetId="1">OFFSET(MiscItem!$B$7,0,0,COUNTA(MiscItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(ThrowableItem!$B$5,0,0,COUNTA(ThrowableItem!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET(Item!#REF!,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="247">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,22 +809,6 @@
     <t>HON_003</t>
   </si>
   <si>
-    <t>촛불고사리 순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촛불고사리 열매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HER_CGR_FRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HER_CGR_LEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,14 +834,6 @@
   </si>
   <si>
     <t>HERB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HER_CGR_FLW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촛불고사리 꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1560,28 +1536,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.75" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1713,15 +1689,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
@@ -1754,15 +1730,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1792,18 +1768,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1836,15 +1812,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1859,7 +1835,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1873,19 +1849,19 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -1897,39 +1873,39 @@
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>99</v>
@@ -1938,92 +1914,92 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I9" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -2037,34 +2013,34 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -2079,33 +2055,33 @@
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>99</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0.5</v>
       </c>
       <c r="I13" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -2120,36 +2096,36 @@
         <v>1</v>
       </c>
       <c r="N13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="1">
-        <v>99</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2161,100 +2137,100 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.5</v>
-      </c>
       <c r="I16" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -2269,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2284,18 +2260,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
@@ -2304,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2325,18 +2301,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
@@ -2345,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2366,18 +2342,18 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
@@ -2389,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <v>200</v>
@@ -2407,18 +2383,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -2427,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2448,18 +2424,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -2468,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2489,18 +2465,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2512,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
         <v>300</v>
@@ -2530,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2550,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="H24" s="1">
-        <v>8</v>
-      </c>
       <c r="I24" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2571,18 +2547,18 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
@@ -2591,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2612,18 +2588,18 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2632,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2653,18 +2629,18 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2673,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I27" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -2694,18 +2670,18 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2714,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -2735,18 +2711,18 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2758,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2779,15 +2755,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2799,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2820,15 +2796,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2837,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
         <v>3</v>
       </c>
-      <c r="H31" s="1">
-        <v>10</v>
-      </c>
       <c r="I31" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2858,18 +2834,18 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2878,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="1">
-        <v>5</v>
-      </c>
       <c r="I32" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2899,18 +2875,18 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -2919,13 +2895,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -2940,18 +2916,18 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2960,13 +2936,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="1">
-        <v>3</v>
-      </c>
       <c r="I34" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -2980,19 +2956,19 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3004,10 +2980,10 @@
         <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -3021,19 +2997,19 @@
       <c r="M35" t="b">
         <v>1</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3042,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -3063,18 +3039,18 @@
         <v>1</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3083,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -3104,18 +3080,18 @@
         <v>1</v>
       </c>
       <c r="N37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3124,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -3145,33 +3121,33 @@
         <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="I39" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -3183,74 +3159,74 @@
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I40" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3259,27 +3235,27 @@
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -3309,18 +3285,18 @@
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -3350,18 +3326,18 @@
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>66</v>
@@ -3391,88 +3367,6 @@
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="1">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3491,20 +3385,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3518,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3565,21 +3459,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3590,7 +3484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3606,36 +3500,28 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3646,24 +3532,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3706,7 +3592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3726,12 +3612,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3746,32 +3632,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3786,18 +3672,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -3806,18 +3692,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
@@ -3826,43 +3712,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3882,28 +3748,28 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.09765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3956,7 +3822,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4006,7 +3872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +3922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>177</v>
       </c>
@@ -4106,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>178</v>
       </c>
@@ -4156,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
@@ -4206,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
@@ -4256,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>181</v>
       </c>
@@ -4306,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
@@ -4356,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>183</v>
       </c>
@@ -4406,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
@@ -4456,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>185</v>
       </c>
@@ -4506,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4517,7 +4383,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4528,7 +4394,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4539,7 +4405,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4551,7 +4417,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4563,7 +4429,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4575,7 +4441,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4587,7 +4453,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4599,7 +4465,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4611,7 +4477,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4638,19 +4504,19 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4673,7 +4539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4693,7 +4559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4713,12 +4579,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4733,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
@@ -4753,12 +4619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4773,12 +4639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4793,12 +4659,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4813,12 +4679,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4833,12 +4699,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4863,25 +4729,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4895,7 +4761,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -4904,7 +4770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4924,7 +4790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +4801,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>93</v>
@@ -4944,12 +4810,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4964,12 +4830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4984,9 +4850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -5004,58 +4870,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -5072,18 +4938,18 @@
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5097,7 +4963,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5108,7 +4974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5119,56 +4985,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5188,21 +5054,21 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="44.09765625" customWidth="1"/>
-    <col min="8" max="8" width="43.69921875" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="44.125" customWidth="1"/>
+    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5216,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>109</v>
@@ -5231,7 +5097,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5258,7 +5124,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5270,7 +5136,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>111</v>
@@ -5285,7 +5151,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>193</v>
@@ -5312,7 +5178,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>194</v>
@@ -5339,7 +5205,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>195</v>
@@ -5366,7 +5232,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>196</v>
@@ -5393,7 +5259,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>197</v>
@@ -5420,7 +5286,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>198</v>
@@ -5447,7 +5313,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5460,7 +5326,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5473,7 +5339,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5486,7 +5352,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5499,7 +5365,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5512,7 +5378,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5525,7 +5391,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5538,7 +5404,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5551,7 +5417,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5564,7 +5430,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5592,19 +5458,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +5490,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5642,7 +5508,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5660,7 +5526,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -5678,7 +5544,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -5696,7 +5562,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>200</v>
@@ -5714,7 +5580,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5724,7 +5590,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5734,7 +5600,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5744,7 +5610,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5754,7 +5620,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5764,7 +5630,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5774,7 +5640,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5784,7 +5650,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5794,7 +5660,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5804,7 +5670,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5814,7 +5680,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5824,7 +5690,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5834,7 +5700,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD304F1-E012-4296-905B-8C21F6324876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716B9A1-696D-42B1-9562-D19702685D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="252">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,9 +528,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>기본으로 지급되는 견습용 곡괭이</t>
-  </si>
-  <si>
     <t>구리 곡괭이</t>
   </si>
   <si>
@@ -882,10 +879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터가 기본으로 장착하고 있는 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낡은 가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터가 기본으로 장착하고 있는 가방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리 끌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,10 +919,6 @@
     <t>SWP_005</t>
   </si>
   <si>
-    <t>이거 설명 안넣으면 오류 안나지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지속 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,10 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,6 +964,46 @@
   </si>
   <si>
     <t>pouch_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탑의 최하층에서 나오는 흔한 광물이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔하게 볼 수 있는 돌맹이. 아이템 파우치에 장착하여 던질 수 있다. 몬스터들의 주의를 끌기에  적당할 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용 곡괭이. 낡았지만 아직 사용하기에 무리는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용 갑옷. 군데군데 해진 곳이 있지만 크게 문제되지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용 가방. 천으로 여러 번 기워 놓은 흔적들이 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초와 광물을 채집할 때 사용하는 도구. 낡아서 끝이 무뎌져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛베리의 꽃. 주로 관상용으로 사용한다고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던지면 빛을 낸다. 아이템 파우치에 장착하여 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리의 잎. 주로 포션에 향을 더하기 위해서 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로즈마리의 꽃. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1574,7 @@
     <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="78.75" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1565,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
@@ -1586,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>60</v>
@@ -1595,7 +1616,7 @@
         <v>61</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
@@ -1674,7 +1695,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>74</v>
@@ -1683,7 +1704,7 @@
         <v>75</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>8</v>
@@ -1691,13 +1712,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
@@ -1732,13 +1753,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1768,18 +1789,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1808,19 +1829,19 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
+      <c r="N6" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1849,19 +1870,19 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
-        <v>2</v>
+      <c r="N7" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -1890,16 +1911,16 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
-        <v>3</v>
+      <c r="N8" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -1932,18 +1953,18 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
@@ -1978,16 +1999,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F11" s="1">
         <v>99</v>
@@ -2019,16 +2040,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
@@ -2060,10 +2081,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -2095,22 +2116,22 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
-        <v>7</v>
+      <c r="N13" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -2142,13 +2163,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>66</v>
@@ -2178,15 +2199,15 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -2219,18 +2240,18 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>66</v>
@@ -2260,18 +2281,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
@@ -2301,18 +2322,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
@@ -2342,18 +2363,18 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
@@ -2383,15 +2404,15 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
@@ -2424,18 +2445,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -2465,18 +2486,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
@@ -2506,18 +2527,18 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2547,15 +2568,15 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>39</v>
@@ -2588,18 +2609,18 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2629,18 +2650,18 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2675,13 +2696,13 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2716,13 +2737,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2757,13 +2778,13 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2798,13 +2819,13 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2834,18 +2855,18 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2880,10 +2901,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>47</v>
@@ -2921,13 +2942,13 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2956,19 +2977,19 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
+      <c r="N34" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3003,13 +3024,13 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3044,13 +3065,13 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3085,13 +3106,13 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3126,13 +3147,13 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>66</v>
@@ -3167,10 +3188,10 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>19</v>
@@ -3208,10 +3229,10 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -3249,10 +3270,10 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>105</v>
@@ -3290,10 +3311,10 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>106</v>
@@ -3331,10 +3352,10 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>107</v>
@@ -3502,26 +3523,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3614,10 +3635,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3634,7 +3655,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -3654,10 +3675,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3674,10 +3695,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3694,10 +3715,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3714,7 +3735,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -3783,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -3807,10 +3828,10 @@
         <v>116</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>43</v>
@@ -3819,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3883,7 +3904,7 @@
         <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>113</v>
@@ -3907,10 +3928,10 @@
         <v>120</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>86</v>
@@ -3919,15 +3940,15 @@
         <v>87</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3974,7 +3995,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -4004,7 +4025,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -4024,10 +4045,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -4054,7 +4075,7 @@
         <v>150</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -4074,10 +4095,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -4104,7 +4125,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -4124,10 +4145,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -4154,7 +4175,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -4174,10 +4195,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -4204,7 +4225,7 @@
         <v>250</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -4224,7 +4245,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -4254,7 +4275,7 @@
         <v>250</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -4274,10 +4295,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -4304,7 +4325,7 @@
         <v>250</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -4324,10 +4345,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -4354,7 +4375,7 @@
         <v>250</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -4581,10 +4602,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4601,7 +4622,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4621,10 +4642,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4641,10 +4662,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4661,10 +4682,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4681,10 +4702,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4701,10 +4722,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4761,7 +4782,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -4801,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>93</v>
@@ -4812,10 +4833,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4832,10 +4853,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4852,7 +4873,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -4960,7 +4981,7 @@
         <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4987,10 +5008,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4998,10 +5019,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5009,10 +5030,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5020,10 +5041,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -5031,10 +5052,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5082,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>109</v>
@@ -5136,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>111</v>
@@ -5154,10 +5175,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5166,13 +5187,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
         <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -5181,7 +5202,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -5196,7 +5217,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -5208,7 +5229,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -5235,7 +5256,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>105</v>
@@ -5262,7 +5283,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>106</v>
@@ -5289,7 +5310,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
@@ -5475,13 +5496,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -5529,16 +5550,16 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5547,16 +5568,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1">
         <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5565,16 +5586,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716B9A1-696D-42B1-9562-D19702685D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A716AA4-7CCD-4F1D-9CDC-D7D30CE1214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,10 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낡은 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARM_005</t>
   </si>
   <si>
@@ -979,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>견습용 갑옷. 군데군데 해진 곳이 있지만 크게 문제되지는 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>견습용 가방. 천으로 여러 번 기워 놓은 흔적들이 보인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,7 +995,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">로즈마리의 꽃. </t>
+    <t>낡은 헬멧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용 헬멧. 군데군데 금이 가 있지만 크게 문제되지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로즈마리의 꽃. 탑의 영향인지 항상 꽃을 피우고 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1789,18 +1789,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>205</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2532,13 +2532,13 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
         <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2825,7 +2825,7 @@
         <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -2866,7 +2866,7 @@
         <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>145</v>
@@ -2948,7 +2948,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4522,7 +4522,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4665,7 +4665,7 @@
         <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4782,7 +4782,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -4822,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>93</v>
@@ -4836,7 +4836,7 @@
         <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4856,7 +4856,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -5011,7 +5011,7 @@
         <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5022,7 +5022,7 @@
         <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5103,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>109</v>
@@ -5157,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>111</v>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A716AA4-7CCD-4F1D-9CDC-D7D30CE1214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE6C24-610E-41D4-B97D-27EE3AEBD585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -34,10 +34,21 @@
     <definedName name="아이템id">OFFSET(Item!#REF!,0,0,COUNTA(Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Condition!$B$4,0,0,COUNTA(Condition!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="254">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,14 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로즈마리 잎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로즈마리 꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HER_RSM_FLW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,10 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로즈마리의 잎. 주로 포션에 향을 더하기 위해서 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낡은 헬멧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,7 +1002,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로즈마리의 꽃. 탑의 영향인지 항상 꽃을 피우고 있다.</t>
+    <t>온기베리 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온기베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온기베리의 꽃. 주로 포션에 향을 더하기 위해서 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 온기를 뿜어내고 있는 열매. 보온으로 들고 다니기에는 껍질이 약해서 금방 터진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_RSM_FRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_RSM_FRT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1560,25 +1579,25 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="78.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="78.69921875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1710,15 +1729,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
@@ -1751,15 +1770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -1789,18 +1808,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
@@ -1830,18 +1849,18 @@
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1871,18 +1890,18 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -1915,12 +1934,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -1953,15 +1972,15 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>162</v>
@@ -1997,12 +2016,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>163</v>
@@ -2038,12 +2057,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>165</v>
@@ -2079,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>174</v>
       </c>
@@ -2117,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2161,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>176</v>
       </c>
@@ -2199,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>177</v>
       </c>
@@ -2243,7 +2262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>178</v>
       </c>
@@ -2284,7 +2303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>179</v>
       </c>
@@ -2325,7 +2344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>180</v>
       </c>
@@ -2366,7 +2385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>181</v>
       </c>
@@ -2407,7 +2426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>182</v>
       </c>
@@ -2448,7 +2467,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>183</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>184</v>
       </c>
@@ -2530,15 +2549,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -2568,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>185</v>
       </c>
@@ -2609,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
@@ -2620,7 +2639,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
@@ -2650,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>187</v>
       </c>
@@ -2661,7 +2680,7 @@
         <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -2694,15 +2713,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -2735,15 +2754,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -2776,15 +2795,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -2817,7 +2836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>188</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -2855,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>189</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -2899,9 +2918,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>145</v>
@@ -2940,7 +2959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>190</v>
       </c>
@@ -2948,7 +2967,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -2978,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>191</v>
       </c>
@@ -2989,7 +3008,7 @@
         <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3022,15 +3041,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3063,15 +3082,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3104,15 +3123,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3145,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>192</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>193</v>
       </c>
@@ -3227,7 +3246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>194</v>
       </c>
@@ -3268,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>195</v>
       </c>
@@ -3309,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>197</v>
       </c>
@@ -3406,20 +3425,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3461,7 +3480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3483,18 +3502,18 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3505,7 +3524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3521,28 +3540,28 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3559,18 +3578,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3633,12 +3652,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3653,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>170</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>172</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>173</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
@@ -3769,28 +3788,28 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3862,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3893,7 +3912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3943,7 +3962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>176</v>
       </c>
@@ -3993,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
@@ -4043,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
@@ -4093,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>179</v>
       </c>
@@ -4143,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
@@ -4193,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>181</v>
       </c>
@@ -4243,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
@@ -4293,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>183</v>
       </c>
@@ -4343,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>184</v>
       </c>
@@ -4393,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4404,7 +4423,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4415,7 +4434,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4426,7 +4445,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4438,7 +4457,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4450,7 +4469,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4462,7 +4481,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4474,7 +4493,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4486,7 +4505,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4498,7 +4517,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4525,19 +4544,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4580,7 +4599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4600,12 +4619,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4620,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
@@ -4640,12 +4659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4660,12 +4679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4680,12 +4699,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -4700,12 +4719,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -4720,12 +4739,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -4754,21 +4773,21 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4801,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -4791,7 +4810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>93</v>
@@ -4831,12 +4850,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -4851,12 +4870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4871,9 +4890,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -4891,58 +4910,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -4959,18 +4978,18 @@
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4984,7 +5003,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5006,56 +5025,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5075,21 +5094,21 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="44.125" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="44.09765625" customWidth="1"/>
+    <col min="8" max="8" width="43.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5103,7 +5122,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>109</v>
@@ -5118,7 +5137,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5145,7 +5164,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>111</v>
@@ -5172,7 +5191,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>192</v>
@@ -5199,7 +5218,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -5226,7 +5245,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>194</v>
@@ -5253,7 +5272,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>195</v>
@@ -5280,7 +5299,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>196</v>
@@ -5307,7 +5326,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>197</v>
@@ -5334,7 +5353,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5347,7 +5366,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5360,7 +5379,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5373,7 +5392,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5386,7 +5405,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5399,7 +5418,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5412,7 +5431,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5425,7 +5444,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5438,7 +5457,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5451,7 +5470,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5479,19 +5498,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5530,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5529,7 +5548,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5547,7 +5566,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
@@ -5565,7 +5584,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>198</v>
@@ -5583,7 +5602,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>199</v>
@@ -5601,7 +5620,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5611,7 +5630,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5621,7 +5640,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5631,7 +5650,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5641,7 +5660,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5651,7 +5670,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5661,7 +5680,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5671,7 +5690,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5681,7 +5700,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5691,7 +5710,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5701,7 +5720,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5711,7 +5730,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5721,7 +5740,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/Assets/JJData/Xlsx/Item_Info.xlsx
+++ b/Assets/JJData/Xlsx/Item_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE6C24-610E-41D4-B97D-27EE3AEBD585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730629F-400B-43B0-B651-D5C300EC62FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="110" yWindow="1810" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="7" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="256">
   <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,6 +1023,14 @@
   </si>
   <si>
     <t>HER_RSM_FRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,25 +1587,25 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="78.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.4140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="78.6640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>230</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>234</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>232</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="F6" s="1">
         <v>99</v>
@@ -1852,7 +1860,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>252</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>253</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1">
         <v>99</v>
@@ -1934,7 +1942,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>229</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>170</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
@@ -2098,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>174</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>176</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>177</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>178</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>179</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>180</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>181</v>
       </c>
@@ -2426,7 +2434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>182</v>
       </c>
@@ -2467,7 +2475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>183</v>
       </c>
@@ -2508,7 +2516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>184</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>213</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>185</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>187</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>206</v>
       </c>
@@ -2754,7 +2762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>207</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>208</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>188</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>189</v>
       </c>
@@ -2918,7 +2926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>217</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>190</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>191</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>224</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>225</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>226</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>192</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>193</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>194</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>195</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
@@ -3369,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>197</v>
       </c>
@@ -3425,20 +3433,20 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3466,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3505,15 +3513,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>234</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>201</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>202</v>
       </c>
@@ -3578,18 +3586,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3632,7 +3640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>232</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>170</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>172</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>173</v>
       </c>
@@ -3752,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
@@ -3788,28 +3796,28 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.09765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +3920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>176</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
@@ -4062,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
@@ -4112,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>179</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>181</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>183</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>184</v>
       </c>
@@ -4412,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4423,7 +4431,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4434,7 +4442,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4445,7 +4453,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4457,7 +4465,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4469,7 +4477,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4481,7 +4489,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -4493,7 +4501,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -4505,7 +4513,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -4517,7 +4525,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -4544,19 +4552,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>213</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>186</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>187</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>206</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>207</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>208</v>
       </c>
@@ -4773,21 +4781,21 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>188</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>189</v>
       </c>
@@ -4890,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>217</v>
       </c>
@@ -4910,58 +4918,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G24" s="8"/>
     </row>
   </sheetData>
@@ -4978,18 +4986,18 @@
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5014,7 +5022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>190</v>
       </c>
@@ -5036,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>191</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>224</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>225</v>
       </c>
@@ -5069,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>226</v>
       </c>
@@ -5094,21 +5102,21 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="44.09765625" customWidth="1"/>
-    <col min="8" max="8" width="43.69921875" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="44.08203125" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5137,7 +5145,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5164,7 +5172,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5191,7 +5199,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>192</v>
@@ -5218,7 +5226,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -5245,7 +5253,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>194</v>
@@ -5272,7 +5280,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>195</v>
@@ -5299,7 +5307,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>196</v>
@@ -5326,7 +5334,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>197</v>
@@ -5353,7 +5361,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5366,7 +5374,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5379,7 +5387,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5392,7 +5400,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5405,7 +5413,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5418,7 +5426,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5431,7 +5439,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5444,7 +5452,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5457,7 +5465,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5470,7 +5478,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5498,19 +5506,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5530,7 +5538,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -5548,7 +5556,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5574,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
@@ -5584,7 +5592,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>198</v>
@@ -5602,7 +5610,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>199</v>
@@ -5620,7 +5628,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5630,7 +5638,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5640,7 +5648,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5650,7 +5658,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5660,7 +5668,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5670,7 +5678,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5680,7 +5688,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5690,7 +5698,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5700,7 +5708,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5710,7 +5718,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5720,7 +5728,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5730,7 +5738,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5740,7 +5748,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
